--- a/refs/pull/40/merge/StructureDefinition-svc-practitioner.xlsx
+++ b/refs/pull/40/merge/StructureDefinition-svc-practitioner.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="291">
   <si>
     <t>Path</t>
   </si>
@@ -570,7 +570,7 @@
     <t>Practitioner.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/svc-organization)
 </t>
   </si>
   <si>
@@ -890,6 +890,10 @@
   </si>
   <si>
     <t>Practitioner.qualification.issuer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
   </si>
   <si>
     <t>Organization that regulates and issues the qualification</t>
@@ -4934,13 +4938,13 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>178</v>
+        <v>279</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5009,7 +5013,7 @@
         <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>40</v>
@@ -5020,7 +5024,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5046,16 +5050,16 @@
         <v>140</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>40</v>
@@ -5104,7 +5108,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5119,13 +5123,13 @@
         <v>62</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>40</v>
